--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T14:07:22+00:00</t>
+    <t>2023-08-04T14:16:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T14:16:44+00:00</t>
+    <t>2023-08-04T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T14:18:34+00:00</t>
+    <t>2023-08-04T14:25:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T14:25:08+00:00</t>
+    <t>2023-08-04T14:26:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T14:26:48+00:00</t>
+    <t>2023-08-04T14:40:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T14:40:57+00:00</t>
+    <t>2023-08-04T14:56:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T14:56:37+00:00</t>
+    <t>2023-08-05T17:17:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-05T17:17:54+00:00</t>
+    <t>2023-08-06T13:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/agenda/StructureDefinition/gap-bundle-reponse-demande-consult-dispo</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/gap/StructureDefinition/gap-bundle-reponse-demande-consult-dispo</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-09T07:57:18+00:00</t>
+    <t>2023-10-10T07:44:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-10T07:44:46+00:00</t>
+    <t>2023-10-10T07:45:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-10T07:45:12+00:00</t>
+    <t>2023-10-10T07:48:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-10T07:48:11+00:00</t>
+    <t>2023-10-10T08:09:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-10T08:09:40+00:00</t>
+    <t>2023-10-10T12:27:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-10T12:27:28+00:00</t>
+    <t>2023-10-10T12:29:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-10T12:29:06+00:00</t>
+    <t>2023-10-10T12:30:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-10T12:30:14+00:00</t>
+    <t>2023-10-16T08:43:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T10:47:11+00:00</t>
+    <t>2023-12-14T10:49:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T10:49:50+00:00</t>
+    <t>2023-12-14T11:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>GAP_BundleResultatReponseADemandeConsultationDisponibilites</t>
+    <t>GAP-BundleResultatReponseADemandeConsultationDisponibilites</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T11:29:24+00:00</t>
+    <t>2024-01-29T14:34:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Il s’agit de la réponse à la demande de consultation des disponibilités d’une ou de plusieurs ressources. Sur la durée demandée, elle devra contenir les informations sur le temps libre ou occupé de chacune des ressources. La réponse contient donc les disponibilités (Slot) des ressources répondant aux critères de recherche de la demande. Les Slot portant le statut free représentent les disponibilités (status=free). Status=busy pour les indisponibilités correspondant à des rendez-vous pris</t>
+    <t>Profil du bundle de réponse à la demande de consultation des disponibilités d’une ou de plusieurs ressources. Sur la durée demandée, elle devra contenir les informations sur le temps libre ou occupé de chacune des ressources. La réponse contient donc les disponibilités (Slot) des ressources répondant aux critères de recherche de la demande. Les Slot portant le statut free représentent les disponibilités (status=free). Status=busy pour les indisponibilités correspondant à des rendez-vous pris</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T14:34:40+00:00</t>
+    <t>2024-01-29T14:50:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T14:50:33+00:00</t>
+    <t>2024-01-29T15:53:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T15:53:44+00:00</t>
+    <t>2024-01-30T10:04:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T10:04:16+00:00</t>
+    <t>2024-01-30T12:40:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T12:40:14+00:00</t>
+    <t>2024-01-30T13:16:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T15:58:41+00:00</t>
+    <t>2024-01-30T16:37:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T18:16:20+00:00</t>
+    <t>2024-01-31T07:58:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T13:22:28+00:00</t>
+    <t>2024-01-31T13:26:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T13:43:28+00:00</t>
+    <t>2024-01-31T13:44:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T13:44:35+00:00</t>
+    <t>2024-01-31T13:46:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T12:47:51+00:00</t>
+    <t>2024-02-05T14:04:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T14:04:11+00:00</t>
+    <t>2024-02-05T16:13:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T16:13:13+00:00</t>
+    <t>2024-02-05T16:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T16:17:14+00:00</t>
+    <t>2024-02-06T08:08:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T08:14:18+00:00</t>
+    <t>2024-02-11T15:35:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-11T15:35:33+00:00</t>
+    <t>2024-02-15T16:56:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
+++ b/ig/main/StructureDefinition-gap-bundle-reponse-demande-consult-dispo.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:56:09+00:00</t>
+    <t>2024-02-23T13:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
